--- a/tu_moi_info_updates.xlsx
+++ b/tu_moi_info_updates.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phanx\Downloads\get_name_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92DC6FF-96C4-4415-AE2E-FAEB154EE77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -52,311 +46,311 @@
     <t>chu_de_id</t>
   </si>
   <si>
-    <t>tu_moi-tu_moi-accounting-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-accounting-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-airlines-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-airlines-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-apply_and_interviewing-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-apply_and_interviewing-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-banking-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-banking-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-board_meeting-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-board_meeting-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-business_planning-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-business_planning-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-car_rentals-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-car_rentals-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-computers_and_the_internet-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-computers_and_the_internet-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-conferences-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-conferences-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-contracts-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-contracts-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-cook-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-cook-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-correspondence-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-correspondence-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-dentists_office-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-dentists_office-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-doctors_office-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-doctors_office-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-eating_out-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-eating_out-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-electronics-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-electronics-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-events-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-events-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-financial_statements-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-financial_statements-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-general_travel-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-general_travel-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-health-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-health-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-hiring_and_training-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-hiring_and_training-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-hopitals-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-hopitals-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-hotels-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-hotels-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-inventory-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-inventory-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-investments-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-investments-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-invoices-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-invoices-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-job_ads_and_recruitment-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-job_ads_and_recruitment-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-marketing-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-marketing-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-media-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-media-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-movies-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-movies-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-museums-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-museums-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-music-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-music-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-office_procedures-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-office_procedures-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-office_technology-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-office_technology-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-ordering_lunch-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-ordering_lunch-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-ordering_supplies-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-ordering_supplies-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-pharmacy-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-pharmacy-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-product_development-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-product_development-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-promotion-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-promotion-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-property_and_departments-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-property_and_departments-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-quality_control-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-quality_control-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-renting_and_leasing-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-renting_and_leasing-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-salaries_and_benefits-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-salaries_and_benefits-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-selecting_a_restaurant-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-selecting_a_restaurant-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-shipping-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-shipping-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-shopping-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-shopping-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-taxes-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-taxes-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-theater-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-theater-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-trains-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-trains-270823232834-270823232857-270823233022.jpg</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-warranties-270823232834-270823232857</t>
-  </si>
-  <si>
-    <t>tu_moi-tu_moi-tu_moi-warranties-270823232834-270823232857-270823233022.jpg</t>
+    <t>accounting</t>
+  </si>
+  <si>
+    <t>tu_moi-accounting-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>airlines</t>
+  </si>
+  <si>
+    <t>tu_moi-airlines-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>apply_and_interviewing</t>
+  </si>
+  <si>
+    <t>tu_moi-apply_and_interviewing-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>banking</t>
+  </si>
+  <si>
+    <t>tu_moi-banking-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>board_meeting</t>
+  </si>
+  <si>
+    <t>tu_moi-board_meeting-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>business_planning</t>
+  </si>
+  <si>
+    <t>tu_moi-business_planning-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>car_rentals</t>
+  </si>
+  <si>
+    <t>tu_moi-car_rentals-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>computers_and_the_internet</t>
+  </si>
+  <si>
+    <t>tu_moi-computers_and_the_internet-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>conferences</t>
+  </si>
+  <si>
+    <t>tu_moi-conferences-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>contracts</t>
+  </si>
+  <si>
+    <t>tu_moi-contracts-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>tu_moi-cook-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>correspondence</t>
+  </si>
+  <si>
+    <t>tu_moi-correspondence-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>dentists_office</t>
+  </si>
+  <si>
+    <t>tu_moi-dentists_office-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>doctors_office</t>
+  </si>
+  <si>
+    <t>tu_moi-doctors_office-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>eating_out</t>
+  </si>
+  <si>
+    <t>tu_moi-eating_out-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>tu_moi-electronics-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>tu_moi-events-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>financial_statements</t>
+  </si>
+  <si>
+    <t>tu_moi-financial_statements-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>general_travel</t>
+  </si>
+  <si>
+    <t>tu_moi-general_travel-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>tu_moi-health-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>hiring_and_training</t>
+  </si>
+  <si>
+    <t>tu_moi-hiring_and_training-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>hopitals</t>
+  </si>
+  <si>
+    <t>tu_moi-hopitals-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>hotels</t>
+  </si>
+  <si>
+    <t>tu_moi-hotels-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>tu_moi-inventory-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>investments</t>
+  </si>
+  <si>
+    <t>tu_moi-investments-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>invoices</t>
+  </si>
+  <si>
+    <t>tu_moi-invoices-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>job_ads_and_recruitment</t>
+  </si>
+  <si>
+    <t>tu_moi-job_ads_and_recruitment-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>tu_moi-marketing-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>tu_moi-media-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>movies</t>
+  </si>
+  <si>
+    <t>tu_moi-movies-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>museums</t>
+  </si>
+  <si>
+    <t>tu_moi-museums-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>tu_moi-music-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>office_procedures</t>
+  </si>
+  <si>
+    <t>tu_moi-office_procedures-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>office_technology</t>
+  </si>
+  <si>
+    <t>tu_moi-office_technology-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>ordering_lunch</t>
+  </si>
+  <si>
+    <t>tu_moi-ordering_lunch-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>ordering_supplies</t>
+  </si>
+  <si>
+    <t>tu_moi-ordering_supplies-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>pharmacy</t>
+  </si>
+  <si>
+    <t>tu_moi-pharmacy-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>product_development</t>
+  </si>
+  <si>
+    <t>tu_moi-product_development-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>promotion</t>
+  </si>
+  <si>
+    <t>tu_moi-promotion-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>property_and_departments</t>
+  </si>
+  <si>
+    <t>tu_moi-property_and_departments-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>quality_control</t>
+  </si>
+  <si>
+    <t>tu_moi-quality_control-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>renting_and_leasing</t>
+  </si>
+  <si>
+    <t>tu_moi-renting_and_leasing-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>salaries_and_benefits</t>
+  </si>
+  <si>
+    <t>tu_moi-salaries_and_benefits-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>selecting_a_restaurant</t>
+  </si>
+  <si>
+    <t>tu_moi-selecting_a_restaurant-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
+    <t>tu_moi-shipping-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>tu_moi-shopping-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>taxes</t>
+  </si>
+  <si>
+    <t>tu_moi-taxes-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>theater</t>
+  </si>
+  <si>
+    <t>tu_moi-theater-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>trains</t>
+  </si>
+  <si>
+    <t>tu_moi-trains-280823224043.jpg</t>
+  </si>
+  <si>
+    <t>warranties</t>
+  </si>
+  <si>
+    <t>tu_moi-warranties-280823224043.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,14 +387,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -447,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,27 +465,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,24 +499,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -724,18 +674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="50.109375" customWidth="1"/>
-    <col min="10" max="10" width="85.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -775,7 +721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -783,7 +729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -791,7 +737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -799,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -807,7 +753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -815,7 +761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -823,7 +769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -831,7 +777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -839,7 +785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -847,7 +793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -855,7 +801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -863,7 +809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -871,7 +817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -879,7 +825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -887,7 +833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>40</v>
       </c>
@@ -895,7 +841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>42</v>
       </c>
@@ -903,7 +849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>44</v>
       </c>
@@ -911,7 +857,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -919,7 +865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>48</v>
       </c>
@@ -927,7 +873,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>50</v>
       </c>
@@ -935,7 +881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -943,7 +889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" t="s">
         <v>54</v>
       </c>
@@ -951,7 +897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -959,7 +905,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" t="s">
         <v>58</v>
       </c>
@@ -967,7 +913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3">
       <c r="B27" t="s">
         <v>60</v>
       </c>
@@ -975,7 +921,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3">
       <c r="B28" t="s">
         <v>62</v>
       </c>
@@ -983,7 +929,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3">
       <c r="B29" t="s">
         <v>64</v>
       </c>
@@ -991,7 +937,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3">
       <c r="B30" t="s">
         <v>66</v>
       </c>
@@ -999,7 +945,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
         <v>68</v>
       </c>
@@ -1007,7 +953,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3">
       <c r="B32" t="s">
         <v>70</v>
       </c>
@@ -1015,7 +961,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3">
       <c r="B33" t="s">
         <v>72</v>
       </c>
@@ -1023,7 +969,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3">
       <c r="B34" t="s">
         <v>74</v>
       </c>
@@ -1031,7 +977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3">
       <c r="B35" t="s">
         <v>76</v>
       </c>
@@ -1039,7 +985,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3">
       <c r="B36" t="s">
         <v>78</v>
       </c>
@@ -1047,7 +993,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3">
       <c r="B37" t="s">
         <v>80</v>
       </c>
@@ -1055,7 +1001,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3">
       <c r="B38" t="s">
         <v>82</v>
       </c>
@@ -1063,7 +1009,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3">
       <c r="B39" t="s">
         <v>84</v>
       </c>
@@ -1071,7 +1017,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3">
       <c r="B40" t="s">
         <v>86</v>
       </c>
@@ -1079,7 +1025,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3">
       <c r="B41" t="s">
         <v>88</v>
       </c>
@@ -1087,7 +1033,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3">
       <c r="B42" t="s">
         <v>90</v>
       </c>
@@ -1095,7 +1041,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3">
       <c r="B43" t="s">
         <v>92</v>
       </c>
@@ -1103,7 +1049,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3">
       <c r="B44" t="s">
         <v>94</v>
       </c>
@@ -1111,7 +1057,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3">
       <c r="B45" t="s">
         <v>96</v>
       </c>
@@ -1119,7 +1065,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3">
       <c r="B46" t="s">
         <v>98</v>
       </c>
@@ -1127,7 +1073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3">
       <c r="B47" t="s">
         <v>100</v>
       </c>
@@ -1135,7 +1081,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3">
       <c r="B48" t="s">
         <v>102</v>
       </c>
@@ -1143,7 +1089,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3">
       <c r="B49" t="s">
         <v>104</v>
       </c>
@@ -1151,7 +1097,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="B50" t="s">
         <v>106</v>
       </c>
@@ -1159,7 +1105,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3">
       <c r="B51" t="s">
         <v>108</v>
       </c>
